--- a/PandasDataAnalytics/part6/stock price.xlsx
+++ b/PandasDataAnalytics/part6/stock price.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socia\Documents\pandas\원고\v0.21\example\part6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DongBIN_PC\PycharmProjects\PythonLecture\PandasDataAnalytics\part6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9186F7BF-CA97-40C3-84F1-4B440E195CED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>value</t>
   </si>
@@ -28,61 +27,31 @@
     <t>price</t>
   </si>
   <si>
-    <t>128940</t>
-  </si>
-  <si>
     <t>한미약품</t>
   </si>
   <si>
-    <t>130960</t>
-  </si>
-  <si>
     <t>CJ E&amp;M</t>
   </si>
   <si>
-    <t>139480</t>
-  </si>
-  <si>
     <t>이마트</t>
   </si>
   <si>
-    <t>138250</t>
-  </si>
-  <si>
     <t>엔에스쇼핑</t>
   </si>
   <si>
-    <t>142280</t>
-  </si>
-  <si>
     <t>녹십자엠에스</t>
   </si>
   <si>
-    <t>145990</t>
-  </si>
-  <si>
     <t>삼양사</t>
   </si>
   <si>
-    <t>185750</t>
-  </si>
-  <si>
     <t>종근당</t>
   </si>
   <si>
-    <t>192400</t>
-  </si>
-  <si>
     <t>쿠쿠홀딩스</t>
   </si>
   <si>
-    <t>199800</t>
-  </si>
-  <si>
     <t>툴젠</t>
-  </si>
-  <si>
-    <t>204210</t>
   </si>
   <si>
     <t>모두투어리츠</t>
@@ -99,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,11 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -464,19 +434,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -486,142 +464,142 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2">
+        <v>59385.666666666657</v>
+      </c>
+      <c r="D2" s="2">
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>59385.666666666657</v>
-      </c>
-      <c r="D2">
-        <v>421000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>58540.666666666657</v>
+      </c>
+      <c r="D3" s="2">
+        <v>98900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14558.66666666667</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>239230.83333333331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>254500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>58540.666666666657</v>
-      </c>
-      <c r="D3">
-        <v>98900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>468.83333333333331</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>82750</v>
+      </c>
+      <c r="D7" s="2">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C8" s="2">
+        <v>40293.666666666672</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>14558.66666666667</v>
-      </c>
-      <c r="D4">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>239230.83333333331</v>
-      </c>
-      <c r="D5">
-        <v>254500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="C9" s="2">
+        <v>179204.66666666669</v>
+      </c>
+      <c r="D9" s="2">
+        <v>177500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" s="2">
+        <v>-2514.333333333333</v>
+      </c>
+      <c r="D10" s="2">
+        <v>115400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>468.83333333333331</v>
-      </c>
-      <c r="D6">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>82750</v>
-      </c>
-      <c r="D7">
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>40293.666666666672</v>
-      </c>
-      <c r="D8">
-        <v>100500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>179204.66666666669</v>
-      </c>
-      <c r="D9">
-        <v>177500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>-2514.333333333333</v>
-      </c>
-      <c r="D10">
-        <v>115400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>3093.333333333333</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3475</v>
       </c>
     </row>
